--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.012420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.012420.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4387,12 +4387,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4429,12 +4429,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4597,12 +4597,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4639,12 +4639,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6117,12 +6117,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6499,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8389,12 +8389,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8935,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9531,12 +9531,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9615,12 +9615,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10589,12 +10589,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10631,12 +10631,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10715,12 +10715,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11009,12 +11009,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11613,12 +11613,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11655,12 +11655,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12335,12 +12335,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12419,12 +12419,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12461,12 +12461,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13345,12 +13345,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13471,12 +13471,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13685,12 +13685,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13727,12 +13727,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13899,12 +13899,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14109,12 +14109,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14319,12 +14319,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14403,12 +14403,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14445,12 +14445,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14613,12 +14613,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15675,12 +15675,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15717,12 +15717,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15969,12 +15969,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16179,12 +16179,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16519,12 +16519,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16981,12 +16981,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17567,12 +17567,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17609,12 +17609,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17861,12 +17861,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18113,12 +18113,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18537,12 +18537,12 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18579,12 +18579,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18789,12 +18789,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19461,12 +19461,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20091,12 +20091,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20679,12 +20679,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20763,12 +20763,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20931,12 +20931,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21351,12 +21351,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22149,12 +22149,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22233,12 +22233,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22569,12 +22569,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23199,12 +23199,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23283,12 +23283,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23451,12 +23451,12 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23661,12 +23661,12 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23791,12 +23791,12 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24547,12 +24547,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
